--- a/goals.xlsx
+++ b/goals.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Population</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Only partnerships --&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Incr Treat</t>
   </si>
 </sst>
 </file>
@@ -110,7 +113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +132,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -207,7 +216,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -218,6 +227,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -227,13 +243,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -567,57 +577,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G8"/>
+  <dimension ref="A3:H8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="6" width="15" customWidth="1"/>
+    <col min="5" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7">
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:8">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="C4" s="9"/>
-      <c r="D4" s="10" t="s">
+    <row r="4" spans="1:8">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="1:8">
+      <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -625,14 +640,15 @@
         <v>2</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -640,11 +656,12 @@
         <v>3</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -652,14 +669,15 @@
         <v>4</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="C3:G3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
